--- a/mmowgli2/src/edu/nps/moves/mmowgli/modules/maps/LeafletLayers.xlsx
+++ b/mmowgli2/src/edu/nps/moves/mmowgli/modules/maps/LeafletLayers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="240" windowWidth="37620" windowHeight="17060" tabRatio="500"/>
+    <workbookView xWindow="6660" yWindow="2900" windowWidth="37620" windowHeight="17060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F23" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1658,6 +1658,9 @@
       <c r="F33" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="H33">
+        <v>0.25</v>
+      </c>
       <c r="J33" t="b">
         <v>1</v>
       </c>
@@ -1686,6 +1689,9 @@
       </c>
       <c r="F34" s="4" t="s">
         <v>104</v>
+      </c>
+      <c r="H34">
+        <v>0.25</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>

--- a/mmowgli2/src/edu/nps/moves/mmowgli/modules/maps/LeafletLayers.xlsx
+++ b/mmowgli2/src/edu/nps/moves/mmowgli/modules/maps/LeafletLayers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="2900" windowWidth="37620" windowHeight="17060" tabRatio="500"/>
+    <workbookView xWindow="6660" yWindow="2940" windowWidth="37620" windowHeight="17060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="131">
   <si>
     <t>Key</t>
   </si>
@@ -369,24 +369,15 @@
     <t>OUTDOORS</t>
   </si>
   <si>
-    <t>Outdoors</t>
-  </si>
-  <si>
     <t>http://{s}.tile.thunderforest.com/outdoors/{z}/{x}/{y}.png</t>
   </si>
   <si>
     <t>TRANSPORT</t>
   </si>
   <si>
-    <t>Transport</t>
-  </si>
-  <si>
     <t>http://{s}.tile.thunderforest.com/transport/{z}/{x}/{y}.png</t>
   </si>
   <si>
-    <t>LANDSCAPE</t>
-  </si>
-  <si>
     <t>http://{s}.tile.thunderforest.com/landscape/{z}/{x}/{y}.png</t>
   </si>
   <si>
@@ -403,6 +394,24 @@
   </si>
   <si>
     <t>active</t>
+  </si>
+  <si>
+    <t>ThunderForest Outdoors</t>
+  </si>
+  <si>
+    <t>ThunderForest Transport</t>
+  </si>
+  <si>
+    <t>ThunderForest Landscape</t>
+  </si>
+  <si>
+    <t>THUNDERFOREST_OUTDOORS</t>
+  </si>
+  <si>
+    <t>THUNDERFOREST_TRANSPORT</t>
+  </si>
+  <si>
+    <t>THUNDERFOREST_LANDSCAPE</t>
   </si>
 </sst>
 </file>
@@ -851,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F23" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -882,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -993,17 +1002,17 @@
     </row>
     <row r="5" spans="1:14" ht="30">
       <c r="A5" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>114</v>
@@ -1023,17 +1032,17 @@
     </row>
     <row r="6" spans="1:14" ht="30">
       <c r="A6" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>114</v>
@@ -1048,22 +1057,22 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30">
       <c r="A7" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>114</v>
@@ -1353,9 +1362,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>63</v>
       </c>
@@ -1397,7 +1404,7 @@
     </row>
     <row r="22" spans="1:14" ht="30">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
@@ -1418,21 +1425,21 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="30">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>86</v>
@@ -1444,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="60">

--- a/mmowgli2/src/edu/nps/moves/mmowgli/modules/maps/LeafletLayers.xlsx
+++ b/mmowgli2/src/edu/nps/moves/mmowgli/modules/maps/LeafletLayers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="2940" windowWidth="37620" windowHeight="17060" tabRatio="500"/>
+    <workbookView xWindow="5700" yWindow="9740" windowWidth="37620" windowHeight="17060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -861,7 +861,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -934,6 +934,9 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
       <c r="E2" t="s">
         <v>51</v>
       </c>
@@ -1121,9 +1124,6 @@
         <v>31</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
